--- a/artfynd/A 56727-2025 artfynd.xlsx
+++ b/artfynd/A 56727-2025 artfynd.xlsx
@@ -2610,7 +2610,7 @@
         <v>130692268</v>
       </c>
       <c r="B16" t="n">
-        <v>56806</v>
+        <v>56810</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>130705002</v>
       </c>
       <c r="B17" t="n">
-        <v>56822</v>
+        <v>56826</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>130704777</v>
       </c>
       <c r="B18" t="n">
-        <v>56815</v>
+        <v>56819</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>130962087</v>
       </c>
       <c r="B19" t="n">
-        <v>56832</v>
+        <v>56836</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>130966161</v>
       </c>
       <c r="B20" t="n">
-        <v>56815</v>
+        <v>56819</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
